--- a/Results table.xlsx
+++ b/Results table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\tirocinio\NLP Bcn\Persona modulation\Jailbreak_LLM-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ripost\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DF65E1-E6F5-42EC-A386-DB74921EE9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626CE04A-7D8D-4FC2-A891-404DB3DFD099}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{64393AA6-CB0E-4B97-A377-695D8882309A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{64393AA6-CB0E-4B97-A377-695D8882309A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="17">
   <si>
     <t>Matching only</t>
   </si>
@@ -87,16 +87,13 @@
   </si>
   <si>
     <t>Minerva-3B-base</t>
-  </si>
-  <si>
-    <t>Aggiungi tab fine tuning Llamantino. Non ho fatto fine tuning Minerva perché matching-only funziona male e l'ASR parte già alto (c'è poco margine di miglioramento)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -585,22 +582,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB397CD-224E-4D51-85EF-7AA745DDAD4A}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -617,7 +614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -631,7 +628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -645,7 +642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -656,7 +653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -667,7 +664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -681,7 +678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -695,7 +692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -706,7 +703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -717,7 +714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -734,7 +731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -745,7 +742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -756,7 +753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -767,7 +764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15">
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -778,7 +775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -789,7 +786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -800,7 +797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -811,7 +808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15">
       <c r="B22" t="s">
         <v>7</v>
       </c>
@@ -822,7 +819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -839,7 +836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="B27" t="s">
         <v>4</v>
       </c>
@@ -851,7 +848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="B28" t="s">
         <v>5</v>
       </c>
@@ -866,7 +863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="B29" t="s">
         <v>6</v>
       </c>
@@ -878,7 +875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15">
       <c r="B30" t="s">
         <v>7</v>
       </c>
@@ -890,7 +887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="B31" t="s">
         <v>4</v>
       </c>
@@ -902,7 +899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="B32" t="s">
         <v>5</v>
       </c>
@@ -914,7 +911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="B33" t="s">
         <v>6</v>
       </c>
@@ -926,7 +923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15">
       <c r="B34" t="s">
         <v>7</v>
       </c>
@@ -938,7 +935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -955,7 +952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -972,7 +969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="B39" t="s">
         <v>5</v>
       </c>
@@ -986,7 +983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="B40" t="s">
         <v>6</v>
       </c>
@@ -1000,7 +997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15">
       <c r="B41" t="s">
         <v>7</v>
       </c>
@@ -1014,7 +1011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="B42" t="s">
         <v>4</v>
       </c>
@@ -1028,7 +1025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="B43" t="s">
         <v>5</v>
       </c>
@@ -1042,7 +1039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="B44" t="s">
         <v>6</v>
       </c>
@@ -1056,7 +1053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15">
       <c r="B45" t="s">
         <v>7</v>
       </c>
@@ -1067,7 +1064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -1084,7 +1081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -1095,7 +1092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5">
       <c r="B50" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5">
       <c r="B51" t="s">
         <v>6</v>
       </c>
@@ -1117,7 +1114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" ht="15">
       <c r="B52" t="s">
         <v>7</v>
       </c>
@@ -1126,7 +1123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5">
       <c r="B53" t="s">
         <v>4</v>
       </c>
@@ -1137,7 +1134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5">
       <c r="B54" t="s">
         <v>5</v>
       </c>
@@ -1148,7 +1145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5">
       <c r="B55" t="s">
         <v>6</v>
       </c>
@@ -1159,18 +1156,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" ht="15">
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
